--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888A8F03-A659-4432-81B3-10C93B46EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7D789-263D-4D44-B590-E9C6EB1B9E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$70</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
   <si>
     <t>Państwa</t>
   </si>
@@ -106,21 +109,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Szwajcaria</t>
-  </si>
-  <si>
-    <t>Wielka Brytania</t>
-  </si>
-  <si>
     <t>Norwegia</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>Amsterdam</t>
   </si>
   <si>
@@ -296,6 +287,9 @@
   </si>
   <si>
     <t>Zagrzeb</t>
+  </si>
+  <si>
+    <t>Oslo</t>
   </si>
 </sst>
 </file>
@@ -663,11 +657,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -684,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -732,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -764,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,7 +812,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -828,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -836,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -844,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -852,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -860,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -868,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -876,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -884,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -892,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -900,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -908,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -924,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -932,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +980,7 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1004,7 +996,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1028,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1044,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1060,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,7 +1060,7 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1076,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1084,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1092,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1100,7 +1092,7 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1116,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1132,7 +1124,7 @@
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1140,7 +1132,7 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1148,7 +1140,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1156,20 +1148,20 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -1177,7 +1169,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
@@ -1185,7 +1177,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -1193,7 +1185,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
@@ -1201,7 +1193,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
@@ -1209,7 +1201,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -1217,7 +1209,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
@@ -1225,177 +1217,9 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>24</v>
-      </c>
-      <c r="B84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>20</v>
-      </c>
-      <c r="B91" t="s">
         <v>27</v>
       </c>
     </row>

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7D789-263D-4D44-B590-E9C6EB1B9E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EA1ED-C29E-465C-AD39-6B20C4BB44D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5808" yWindow="3276" windowWidth="17232" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13EA1ED-C29E-465C-AD39-6B20C4BB44D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C910EE-81C8-4A98-810C-F8C7FD2D30B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="3276" windowWidth="17232" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>Państwa</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -657,71 +660,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -729,7 +753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -737,15 +761,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -753,7 +780,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -761,7 +788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -769,7 +796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -777,7 +804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -785,7 +812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -793,7 +820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -801,7 +828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -809,7 +836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -817,7 +844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -825,15 +852,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -841,15 +871,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -857,15 +890,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -873,7 +909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -881,15 +917,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -897,7 +936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -905,7 +944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -913,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -921,15 +960,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -937,7 +979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -945,15 +987,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -961,7 +1006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -969,15 +1014,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -985,7 +1033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -993,7 +1041,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1001,15 +1049,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1017,15 +1068,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1041,15 +1095,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1122,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1081,15 +1138,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="B53" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1157,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1173,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1121,15 +1181,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
       <c r="B58" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1208,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -1153,63 +1216,84 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>28</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1217,7 +1301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C910EE-81C8-4A98-810C-F8C7FD2D30B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3154C-6FC6-4F49-82FC-06A16E400A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$71</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>Państwa</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Wlochy</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1240,10 +1243,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
         <v>27</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -1295,17 +1295,28 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
       </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>8</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>27</v>
       </c>
     </row>

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE3154C-6FC6-4F49-82FC-06A16E400A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F8E7F-27D9-4C91-9036-D89DB1962DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>Państwa</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>Wlochy</t>
   </si>
 </sst>
 </file>
@@ -666,7 +663,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1240,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C64">
         <v>1</v>

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F8E7F-27D9-4C91-9036-D89DB1962DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE41AD4-33BF-4268-9A1F-C02BB6A20367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>Państwa</t>
   </si>
@@ -663,7 +663,7 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,6 +1242,9 @@
       <c r="A64" t="s">
         <v>13</v>
       </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
       <c r="C64">
         <v>1</v>
       </c>

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE41AD4-33BF-4268-9A1F-C02BB6A20367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BFFA72-403A-4167-9429-2641B02BBB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1094,6 +1094,9 @@
       <c r="B47" t="s">
         <v>73</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1207,6 +1210,9 @@
       <c r="B60" t="s">
         <v>86</v>
       </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -1267,9 +1273,6 @@
       <c r="B66" t="s">
         <v>27</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -1288,9 +1291,6 @@
       </c>
       <c r="B68" t="s">
         <v>27</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BFFA72-403A-4167-9429-2641B02BBB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD8809-DA73-4580-BD3F-936832CD4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,6 +1005,9 @@
       <c r="B37" t="s">
         <v>63</v>
       </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD8809-DA73-4580-BD3F-936832CD4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B75C8-537A-48CA-B766-3BE6D2633CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B75C8-537A-48CA-B766-3BE6D2633CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B36385-9AE5-4639-913E-13CA51FACAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,6 +908,9 @@
       <c r="B26" t="s">
         <v>53</v>
       </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1186,6 +1189,9 @@
       <c r="B57" t="s">
         <v>83</v>
       </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -1313,6 +1319,9 @@
       </c>
       <c r="B70" t="s">
         <v>27</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">

--- a/miasta.xlsx
+++ b/miasta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B36385-9AE5-4639-913E-13CA51FACAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4527265-48F7-4A59-94B5-2FD950E4EBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,6 +779,9 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
